--- a/산업안전보건법.xlsx
+++ b/산업안전보건법.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghyeon/Documents/GitHub/Industrial_safety_and_health_law-visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5280FB1E-C7DF-3944-B180-0ECF57504AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196B47B-68B9-C146-BB64-F0154373239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1132">
   <si>
     <t>조문제목</t>
   </si>
@@ -3913,6 +3913,11 @@
   </si>
   <si>
     <t>18. 제164조제1항부터 제6항까지의 규정을 위반하여 서류를 보존하지 아니한 자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ② 사업주는 다음 각 호의 사항에 대해서는 제1항에 따른 산업안전보건위원회(이하 "산업안전보건위원회"라 한다)의 심의ㆍ의결을 거쳐야 한다.
+				</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3978,10 +3983,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4321,10 +4329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1098"/>
+  <dimension ref="A1:D1090"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5552,12 +5560,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="54">
       <c r="A137" t="s">
         <v>27</v>
       </c>
-      <c r="C137" t="s">
-        <v>276</v>
+      <c r="C137" s="2" t="s">
+        <v>1131</v>
       </c>
       <c r="D137" t="s">
         <v>771</v>
@@ -13923,12 +13931,6 @@
       </c>
       <c r="C1090" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:4">
-      <c r="A1098">
-        <f>1090 - 175</f>
-        <v>915</v>
       </c>
     </row>
   </sheetData>
